--- a/data/050723.xlsx
+++ b/data/050723.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,162 @@
   </si>
   <si>
     <t>440300700031</t>
+  </si>
+  <si>
+    <t>0104440320171121000000121</t>
+  </si>
+  <si>
+    <t>010444032017112100000012</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01041_44</t>
+  </si>
+  <si>
+    <t>91440300056156602T</t>
+  </si>
+  <si>
+    <t>深圳市星扬高新科技有限公司</t>
+  </si>
+  <si>
+    <t>张一</t>
+  </si>
+  <si>
+    <t>440300600050</t>
+  </si>
+  <si>
+    <t>0104440320171121000000122</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01042_44</t>
+  </si>
+  <si>
+    <t>91440300MA5DC4PX3M</t>
+  </si>
+  <si>
+    <t>深圳市德和生物科技有限公司</t>
+  </si>
+  <si>
+    <t>张二</t>
+  </si>
+  <si>
+    <t>440300700030</t>
+  </si>
+  <si>
+    <t>0104440320171121000000123</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01043_44</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>91440300MA5D87Y74G</t>
+  </si>
+  <si>
+    <t>深圳市宇彦科技有限公司</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>440300700163</t>
+  </si>
+  <si>
+    <t>0104440320171121000000124</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01044_45</t>
+  </si>
+  <si>
+    <t>ZY</t>
+  </si>
+  <si>
+    <t>92440300X1904461X7</t>
+  </si>
+  <si>
+    <t>深圳市宝安区沙井华南五金制品厂</t>
+  </si>
+  <si>
+    <t>张四</t>
+  </si>
+  <si>
+    <t>440300600055</t>
+  </si>
+  <si>
+    <t>0104440320171121000000125</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e01045_46</t>
+  </si>
+  <si>
+    <t>92440300L26577820W</t>
+  </si>
+  <si>
+    <t>深圳市光明新区公明佳兴五金厂</t>
+  </si>
+  <si>
+    <t>张五</t>
+  </si>
+  <si>
+    <t>440307800011</t>
+  </si>
+  <si>
+    <t>0904440320171121000001071</t>
+  </si>
+  <si>
+    <t>090444032017112100000107</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09041_44</t>
+  </si>
+  <si>
+    <t>李一</t>
+  </si>
+  <si>
+    <t>0904440320171121000001072</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09042_44</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>李二</t>
+  </si>
+  <si>
+    <t>0911440320171228000001031</t>
+  </si>
+  <si>
+    <t>091144032017122800000103</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09111_44</t>
+  </si>
+  <si>
+    <t>王一</t>
+  </si>
+  <si>
+    <t>0911440320171228000001032</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09112_44</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>王二</t>
+  </si>
+  <si>
+    <t>0912440320171229000000241</t>
+  </si>
+  <si>
+    <t>091244032017122900000024</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09121_44</t>
   </si>
 </sst>
 </file>
@@ -120,17 +276,89 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -142,143 +370,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +454,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,26 +648,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,11 +689,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,24 +722,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,10 +751,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,139 +763,140 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,13 +1217,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
@@ -1115,7 +1277,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -1130,10 +1292,10 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1">
@@ -1214,6 +1376,356 @@
       </c>
       <c r="K4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43162.3451388889</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43162.3458333333</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43163.3868055556</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43163.3875</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43163.4284722222</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43163.4291666667</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43164.4284722222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43164.4291666667</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43164.5118055556</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43164.5125</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43162.3451388889</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43162.3458333333</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43163.3868055556</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43163.3875</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43162.3451388889</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43162.3458333333</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43163.4284722222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43163.4291666667</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43162.3451388889</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43162.3458333333</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
